--- a/branches/main/StructureDefinition-MLParameter.xlsx
+++ b/branches/main/StructureDefinition-MLParameter.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>[Profile] - Machine Learning Parameters</t>
+    <t>Machine Learning Parameters</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:41:13+00:00</t>
+    <t>2022-04-20T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-MLParameter.xlsx
+++ b/branches/main/StructureDefinition-MLParameter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13336" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13336" uniqueCount="223">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07T15:44:13+00:00</t>
+    <t>2022-07-08T12:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,6 +637,9 @@
     <t>grav_feto_altcf</t>
   </si>
   <si>
+    <t>grav.feto.altcf</t>
+  </si>
+  <si>
     <t>tparto_esp</t>
   </si>
   <si>
@@ -29836,7 +29839,7 @@
         <v>83</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K276" t="s" s="2">
         <v>142</v>
@@ -30672,7 +30675,7 @@
         <v>83</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K284" t="s" s="2">
         <v>142</v>
@@ -31508,7 +31511,7 @@
         <v>83</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K292" t="s" s="2">
         <v>142</v>
@@ -32344,7 +32347,7 @@
         <v>83</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K300" t="s" s="2">
         <v>142</v>
@@ -33180,7 +33183,7 @@
         <v>83</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K308" t="s" s="2">
         <v>142</v>
@@ -33931,7 +33934,7 @@
         <v>74</v>
       </c>
       <c r="R315" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S315" t="s" s="2">
         <v>74</v>
@@ -34016,7 +34019,7 @@
         <v>83</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K316" t="s" s="2">
         <v>142</v>
@@ -34309,7 +34312,7 @@
         <v>110</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C319" t="s" s="2">
         <v>74</v>
@@ -34767,7 +34770,7 @@
         <v>74</v>
       </c>
       <c r="R323" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S323" t="s" s="2">
         <v>74</v>
@@ -34852,7 +34855,7 @@
         <v>83</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K324" t="s" s="2">
         <v>142</v>
@@ -35145,7 +35148,7 @@
         <v>110</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C327" t="s" s="2">
         <v>74</v>
@@ -35603,7 +35606,7 @@
         <v>74</v>
       </c>
       <c r="R331" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S331" t="s" s="2">
         <v>74</v>
@@ -35688,7 +35691,7 @@
         <v>83</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K332" t="s" s="2">
         <v>142</v>
@@ -35981,7 +35984,7 @@
         <v>110</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C335" t="s" s="2">
         <v>74</v>
@@ -36439,7 +36442,7 @@
         <v>74</v>
       </c>
       <c r="R339" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S339" t="s" s="2">
         <v>74</v>
@@ -36524,7 +36527,7 @@
         <v>83</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K340" t="s" s="2">
         <v>142</v>
@@ -36817,7 +36820,7 @@
         <v>110</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C343" t="s" s="2">
         <v>74</v>
@@ -37275,7 +37278,7 @@
         <v>74</v>
       </c>
       <c r="R347" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S347" t="s" s="2">
         <v>74</v>
@@ -37360,7 +37363,7 @@
         <v>83</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>142</v>
@@ -37653,7 +37656,7 @@
         <v>110</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C351" t="s" s="2">
         <v>74</v>
@@ -38111,7 +38114,7 @@
         <v>74</v>
       </c>
       <c r="R355" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S355" t="s" s="2">
         <v>74</v>
@@ -38196,7 +38199,7 @@
         <v>83</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K356" t="s" s="2">
         <v>142</v>
@@ -38489,7 +38492,7 @@
         <v>110</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C359" t="s" s="2">
         <v>74</v>
@@ -38947,7 +38950,7 @@
         <v>74</v>
       </c>
       <c r="R363" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S363" t="s" s="2">
         <v>74</v>
@@ -39032,7 +39035,7 @@
         <v>83</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K364" t="s" s="2">
         <v>142</v>
@@ -39325,7 +39328,7 @@
         <v>110</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C367" t="s" s="2">
         <v>74</v>
@@ -39783,7 +39786,7 @@
         <v>74</v>
       </c>
       <c r="R371" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S371" t="s" s="2">
         <v>74</v>
@@ -39868,7 +39871,7 @@
         <v>83</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K372" t="s" s="2">
         <v>142</v>
@@ -40161,7 +40164,7 @@
         <v>110</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C375" t="s" s="2">
         <v>74</v>
@@ -40619,7 +40622,7 @@
         <v>74</v>
       </c>
       <c r="R379" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S379" t="s" s="2">
         <v>74</v>
@@ -40704,7 +40707,7 @@
         <v>83</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K380" t="s" s="2">
         <v>142</v>
@@ -40997,7 +41000,7 @@
         <v>110</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C383" t="s" s="2">
         <v>74</v>
@@ -41455,7 +41458,7 @@
         <v>74</v>
       </c>
       <c r="R387" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S387" t="s" s="2">
         <v>74</v>
@@ -41540,7 +41543,7 @@
         <v>83</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K388" t="s" s="2">
         <v>142</v>
@@ -41833,7 +41836,7 @@
         <v>110</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C391" t="s" s="2">
         <v>74</v>
@@ -42291,7 +42294,7 @@
         <v>74</v>
       </c>
       <c r="R395" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S395" t="s" s="2">
         <v>74</v>
@@ -42376,7 +42379,7 @@
         <v>83</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K396" t="s" s="2">
         <v>142</v>
@@ -42669,7 +42672,7 @@
         <v>110</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C399" t="s" s="2">
         <v>74</v>
@@ -43127,7 +43130,7 @@
         <v>74</v>
       </c>
       <c r="R403" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S403" t="s" s="2">
         <v>74</v>
@@ -43212,7 +43215,7 @@
         <v>83</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K404" t="s" s="2">
         <v>142</v>
